--- a/test_points.xlsx
+++ b/test_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dangranger/Documents/Both/Aviation/References/Courses/NTPS/NTPS 2024/Modules/Capstone/python/aircraft_envelope/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7A4FB8-EC86-874B-8E69-08204818A16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43BD56A-3C23-9F4A-AFC2-FFDBE322BD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="660" windowWidth="17700" windowHeight="21580" xr2:uid="{83419673-7D0D-054E-B014-08588E21E21B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
   <si>
     <t>Test Point</t>
   </si>
@@ -497,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08B0B6C-3F0B-174E-A3FA-27D2CD26C88A}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,7 +672,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -712,6 +712,17 @@
       </c>
       <c r="C19">
         <v>15000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>300</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>25000</v>
       </c>
     </row>
   </sheetData>
